--- a/biology/Zoologie/Dendropsophus_minutus/Dendropsophus_minutus.xlsx
+++ b/biology/Zoologie/Dendropsophus_minutus/Dendropsophus_minutus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dendropsophus minutus est une espèce d'amphibiens de la famille des Hylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dendropsophus minutus est une espèce d'amphibiens de la famille des Hylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre jusqu'à 2 000 m d'altitude[1],[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre jusqu'à 2 000 m d'altitude, :
 en Colombie ;
 au Venezuela ;
 à Trinité-et-Tobago ;
@@ -554,9 +568,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dendropsophus minutus[3] mesure de 23,5 à 26 mm. Cette espèce a le dos brun pâle avec des marques imprécises brun foncé. Sa face ventrale est blanche teintée d'orange. Ses os sont orangés. Les juvéniles sont de couleur grise avec le ventre blanc.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dendropsophus minutus mesure de 23,5 à 26 mm. Cette espèce a le dos brun pâle avec des marques imprécises brun foncé. Sa face ventrale est blanche teintée d'orange. Ses os sont orangés. Les juvéniles sont de couleur grise avec le ventre blanc.
 Les têtards de cette espèce mesurent, selon leur développement, de 3 à 12 mm avec une queue variant respectivement de 10 à 25 mm. Leur coloration est généralement fauve tacheté de brun foncé.
 </t>
         </is>
@@ -586,7 +602,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, du latin, minuta, « minuscule », lui a été donné en référence à sa petite taille.
 </t>
@@ -617,7 +635,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Peters, 1872 : Über eine Sammlung von Batrachiern aus Neu-Freiburg in Brasilien. Monatsberichte der Königlich preussischen Akademie der Wissenschaften zu Berlin, vol. 1, p. 680-684 (texte intégral).</t>
         </is>
